--- a/biology/Zoologie/Eoleptoneta/Eoleptoneta.xlsx
+++ b/biology/Zoologie/Eoleptoneta/Eoleptoneta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eoleptoneta est un genre fossile d'araignées aranéomorphes de la famille des Leptonetidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eoleptoneta est un genre fossile d'araignées aranéomorphes de la famille des Leptonetidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique et de Bitterfeld en Saxe-Anhalt en Allemagne. Elles datent du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique et de Bitterfeld en Saxe-Anhalt en Allemagne. Elles datent du Paléogène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The World Spider Catalog 14.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The World Spider Catalog 14.5 :
 †Eoleptoneta curvata Wunderlich, 2004
 †Eoleptoneta duocalcar Wunderlich, 2004
 †Eoleptoneta kutscheri Wunderlich, 1991
@@ -578,7 +594,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Wunderlich, 1991 : Beschreibung der ersten fossilen Spinne der Familie Leptonetidae: Eoleptona kutscheri n. gen., n. sp. in Sächsischem Bernstein (Arachnida: Araneae). Entomologische Zeitschrift, vol. 101, p. 21–26.</t>
         </is>
